--- a/DataTable/bin/Debug/Excel/Skill.xlsx
+++ b/DataTable/bin/Debug/Excel/Skill.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D55491-19E9-4A9E-A48C-C33F931E39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,22 +347,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>#name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +489,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,7 +508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,23 +583,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -559,23 +618,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="A22:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,200 +822,208 @@
     <col min="20" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2</v>
-      </c>
-      <c r="T4" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>68</v>
@@ -985,19 +1035,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1026,10 +1076,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>68</v>
@@ -1041,25 +1091,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K6" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>48</v>
@@ -1068,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="1">
         <v>0.3</v>
@@ -1082,10 +1132,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>68</v>
@@ -1097,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1118,19 +1168,19 @@
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P7" s="1">
         <v>100</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1" t="b">
         <v>0</v>
@@ -1138,10 +1188,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>68</v>
@@ -1153,51 +1203,51 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K8" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>68</v>
@@ -1209,25 +1259,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>24</v>
@@ -1236,7 +1286,7 @@
         <v>51</v>
       </c>
       <c r="P9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="1">
         <v>0.5</v>
@@ -1250,10 +1300,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>68</v>
@@ -1265,43 +1315,40 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
       <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="1">
         <v>2</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T10" s="1" t="b">
         <v>1</v>
@@ -1309,10 +1356,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>68</v>
@@ -1324,19 +1371,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K11" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1345,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>35</v>
@@ -1368,10 +1415,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>68</v>
@@ -1383,25 +1430,25 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>25</v>
@@ -1410,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="P12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -1427,58 +1474,69 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.6</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1493,13 +1551,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4">
+        <v>22</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1522,16 +1581,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1540,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1569,10 +1628,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1587,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1616,16 +1675,16 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1634,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>60</v>
@@ -1663,10 +1722,10 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1681,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -1710,37 +1769,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -1757,60 +1816,107 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>8</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="1">
         <v>1.6</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P21" s="1">
         <v>100</v>
       </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="1" t="b">
+      <c r="T21" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DataTable/bin/Debug/Excel/Skill.xlsx
+++ b/DataTable/bin/Debug/Excel/Skill.xlsx
@@ -4,19 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="9060" yWindow="2025" windowWidth="16740" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillAquire" sheetId="1" r:id="rId1"/>
-    <sheet name="Skill" sheetId="2" r:id="rId2"/>
-    <sheet name="Buff" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix" sheetId="4" r:id="rId2"/>
+    <sheet name="Skill" sheetId="2" r:id="rId3"/>
+    <sheet name="Buff" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="237">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>illusory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,10 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#SkillAquire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +784,50 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SkillAcquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,3,3,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,4,4,4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,5,5,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,3,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpiritsType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,21 +1226,21 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1222,16 +1269,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -2424,7 +2471,7 @@
         <v>20065</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I68" s="4">
         <v>4</v>
@@ -2439,7 +2486,7 @@
         <v>20066</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2466,7 +2513,7 @@
         <v>20067</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E70" s="4">
         <v>3</v>
@@ -2490,7 +2537,7 @@
         <v>20068</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2520,7 +2567,7 @@
         <v>20069</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -2544,7 +2591,7 @@
         <v>20070</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
@@ -2568,7 +2615,7 @@
         <v>20071</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J74" s="4">
         <v>7</v>
@@ -2583,7 +2630,7 @@
         <v>20072</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="4">
         <v>4</v>
@@ -2613,7 +2660,7 @@
         <v>20073</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="4">
         <v>4</v>
@@ -2638,1982 +2685,2594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="22.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="4">
+        <v>50001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
+        <v>50002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
+        <v>50003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
+        <v>50004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>50005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="13.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="6" customWidth="1"/>
+    <col min="3" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="16.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="13.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>224</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>20001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>126</v>
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="3" t="str">
+        <f>sheet!K4</f>
+        <v>,,1,,,,</v>
+      </c>
+      <c r="H4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>20002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="3" t="str">
+        <f>sheet!K5</f>
+        <v>,,2,,,,</v>
+      </c>
+      <c r="H5" s="4">
         <v>1.2</v>
       </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
         <v>30002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>20003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
+      <c r="G6" s="3" t="str">
+        <f>sheet!K6</f>
+        <v>1,,2,,,1,1</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>20004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="3" t="str">
+        <f>sheet!K7</f>
+        <v>,,3,,,,</v>
+      </c>
+      <c r="H7" s="4">
         <v>1.3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>20005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="3" t="str">
+        <f>sheet!K8</f>
+        <v>,,3,,,2,</v>
+      </c>
+      <c r="H8" s="4">
         <v>1.4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="K8" s="6">
         <v>30005</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>20006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="3" t="str">
+        <f>sheet!K9</f>
+        <v>,,5,,,,</v>
+      </c>
+      <c r="H9" s="4">
         <v>1.8</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
         <v>30006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>20007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>132</v>
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="3" t="str">
+        <f>sheet!K10</f>
+        <v>,,5,3,,,</v>
+      </c>
+      <c r="H10" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
         <v>30007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>20008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>133</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="3" t="str">
+        <f>sheet!K11</f>
+        <v>3,,5,,,3,3</v>
+      </c>
+      <c r="H11" s="4">
         <v>1.2</v>
       </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6">
         <v>30008</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>20009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>134</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3" t="str">
+        <f>sheet!K12</f>
+        <v>,,6,,4,4,</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="K12" s="6">
         <v>30009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>20010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>135</v>
+        <v>61</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="3" t="str">
+        <f>sheet!K13</f>
+        <v>,,8,,,4,</v>
+      </c>
+      <c r="H13" s="4">
         <v>1.3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="K13" s="6">
         <v>30010</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>20011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>136</v>
+        <v>62</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="3" t="str">
+        <f>sheet!K14</f>
+        <v>,,8,,,4,</v>
+      </c>
+      <c r="H14" s="4">
         <v>1.4</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
         <v>30011</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>20012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="3" t="str">
+        <f>sheet!K15</f>
+        <v>,6,10,,,,</v>
+      </c>
+      <c r="H15" s="4">
         <v>1.8</v>
       </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
         <v>30012</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>20013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>138</v>
+        <v>64</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="3" t="str">
+        <f>sheet!K16</f>
+        <v>,,14,,,12,</v>
+      </c>
+      <c r="H16" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
         <v>30013</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>20014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>139</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="3" t="str">
+        <f>sheet!K17</f>
+        <v>,,16,,,15,</v>
+      </c>
+      <c r="H17" s="4">
         <v>1.2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <v>4</v>
       </c>
-      <c r="I17" s="6">
+      <c r="K17" s="6">
         <v>30014</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>20015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>140</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3" t="str">
+        <f>sheet!K18</f>
+        <v>1,,,,,,</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="6">
+      <c r="K18" s="6">
         <v>30015</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>20016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>141</v>
+        <v>67</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="3" t="str">
+        <f>sheet!K19</f>
+        <v>1,,,,,,</v>
+      </c>
+      <c r="H19" s="4">
         <v>1.3</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
         <v>30016</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>20017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>142</v>
+        <v>68</v>
+      </c>
+      <c r="D20" s="4">
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="3" t="str">
+        <f>sheet!K20</f>
+        <v>2,,,,,,1</v>
+      </c>
+      <c r="H20" s="4">
         <v>1.4</v>
       </c>
-      <c r="G20" s="4">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
         <v>30017</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>20018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>143</v>
+        <v>69</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="3" t="str">
+        <f>sheet!K21</f>
+        <v>2,,,1,,1,</v>
+      </c>
+      <c r="H21" s="4">
         <v>1.8</v>
       </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
         <v>30001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>20019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>144</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="4">
+        <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="3" t="str">
+        <f>sheet!K22</f>
+        <v>4,,,,,,</v>
+      </c>
+      <c r="H22" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G22" s="4">
+      <c r="I22" s="4">
         <v>4</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>4</v>
       </c>
-      <c r="I22" s="6">
+      <c r="K22" s="6">
         <v>30002</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>20020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>145</v>
+        <v>71</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="3" t="str">
+        <f>sheet!K23</f>
+        <v>4,,,2,,,1</v>
+      </c>
+      <c r="H23" s="4">
         <v>1.2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="I23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>5</v>
       </c>
-      <c r="I23" s="6">
+      <c r="K23" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>146</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="4">
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
+      <c r="G24" s="3" t="str">
+        <f>sheet!K24</f>
+        <v>5,,,,,,</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>20022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>147</v>
+        <v>73</v>
+      </c>
+      <c r="D25" s="4">
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="3" t="str">
+        <f>sheet!K25</f>
+        <v>8,,,,,,</v>
+      </c>
+      <c r="H25" s="4">
         <v>1.3</v>
       </c>
-      <c r="G25" s="4">
-        <v>3</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6">
         <v>30005</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>20023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>148</v>
+        <v>74</v>
+      </c>
+      <c r="D26" s="4">
+        <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="3" t="str">
+        <f>sheet!K26</f>
+        <v>8,,,2,,2,</v>
+      </c>
+      <c r="H26" s="4">
         <v>1.4</v>
       </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3</v>
+      </c>
+      <c r="K26" s="6">
         <v>30006</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>20024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>149</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="4">
+        <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="3" t="str">
+        <f>sheet!K27</f>
+        <v>8,,,,,2,4</v>
+      </c>
+      <c r="H27" s="4">
         <v>1.8</v>
       </c>
-      <c r="G27" s="4">
+      <c r="I27" s="4">
         <v>4</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <v>4</v>
       </c>
-      <c r="I27" s="6">
+      <c r="K27" s="6">
         <v>30007</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>20025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>76</v>
+      </c>
+      <c r="D28" s="4">
+        <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="3" t="str">
+        <f>sheet!K28</f>
+        <v>10,,,2,,1,</v>
+      </c>
+      <c r="H28" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <v>5</v>
       </c>
-      <c r="I28" s="6">
+      <c r="K28" s="6">
         <v>30008</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>20026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="D29" s="4">
+        <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="3" t="str">
+        <f>sheet!K29</f>
+        <v>12,,,,,,</v>
+      </c>
+      <c r="H29" s="4">
         <v>1.2</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
         <v>30009</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>20027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>152</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="4">
+        <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>3</v>
+      <c r="G30" s="3" t="str">
+        <f>sheet!K30</f>
+        <v>15,,,,,,</v>
       </c>
       <c r="H30" s="4">
         <v>2</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="6">
         <v>30010</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>20028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>79</v>
+      </c>
+      <c r="D31" s="4">
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="3" t="str">
+        <f>sheet!K31</f>
+        <v>16,,,8,,4,</v>
+      </c>
+      <c r="H31" s="4">
         <v>1.3</v>
       </c>
-      <c r="G31" s="4">
-        <v>2</v>
-      </c>
-      <c r="H31" s="4">
-        <v>3</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="6">
         <v>30011</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>20029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>154</v>
+        <v>80</v>
+      </c>
+      <c r="D32" s="4">
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="3" t="str">
+        <f>sheet!K32</f>
+        <v>18,,,8,,,4</v>
+      </c>
+      <c r="H32" s="4">
         <v>1.4</v>
       </c>
-      <c r="G32" s="4">
+      <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="H32" s="4">
+      <c r="J32" s="4">
         <v>4</v>
       </c>
-      <c r="I32" s="6">
+      <c r="K32" s="6">
         <v>30012</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>20030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
+      </c>
+      <c r="D33" s="4">
+        <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="3" t="str">
+        <f>sheet!K33</f>
+        <v>22,,,12,,6,</v>
+      </c>
+      <c r="H33" s="4">
         <v>1.8</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J33" s="4">
         <v>5</v>
       </c>
-      <c r="I33" s="6">
+      <c r="K33" s="6">
         <v>30013</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>20031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>156</v>
+        <v>82</v>
+      </c>
+      <c r="D34" s="4">
+        <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="3" t="str">
+        <f>sheet!K34</f>
+        <v>25,,,12,,5,</v>
+      </c>
+      <c r="H34" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
         <v>30014</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>20032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>83</v>
+      </c>
+      <c r="D35" s="4">
+        <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="3" t="str">
+        <f>sheet!K35</f>
+        <v>,1,,,,,</v>
+      </c>
+      <c r="H35" s="4">
         <v>1.2</v>
       </c>
-      <c r="G35" s="4">
-        <v>3</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="6">
         <v>30015</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>20033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="D36" s="4">
+        <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>2</v>
+      <c r="G36" s="3" t="str">
+        <f>sheet!K36</f>
+        <v>,2,,1,,1,1</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
-      </c>
-      <c r="I36" s="6">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+      <c r="K36" s="6">
         <v>30016</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>20034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>159</v>
+        <v>85</v>
+      </c>
+      <c r="D37" s="4">
+        <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="3" t="str">
+        <f>sheet!K37</f>
+        <v>,3,,,,,</v>
+      </c>
+      <c r="H37" s="4">
         <v>1.3</v>
       </c>
-      <c r="G37" s="4">
+      <c r="I37" s="4">
         <v>4</v>
       </c>
-      <c r="H37" s="4">
+      <c r="J37" s="4">
         <v>4</v>
       </c>
-      <c r="I37" s="6">
+      <c r="K37" s="6">
         <v>30017</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>20035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>160</v>
+        <v>86</v>
+      </c>
+      <c r="D38" s="4">
+        <v>35</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="3" t="str">
+        <f>sheet!K38</f>
+        <v>,3,,1,,1,</v>
+      </c>
+      <c r="H38" s="4">
         <v>1.4</v>
       </c>
-      <c r="G38" s="4">
+      <c r="I38" s="4">
         <v>5</v>
       </c>
-      <c r="H38" s="4">
+      <c r="J38" s="4">
         <v>5</v>
       </c>
-      <c r="I38" s="6">
+      <c r="K38" s="6">
         <v>30001</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>20036</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>87</v>
+      </c>
+      <c r="D39" s="4">
+        <v>36</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="3" t="str">
+        <f>sheet!K39</f>
+        <v>,5,,2,,2,</v>
+      </c>
+      <c r="H39" s="4">
         <v>1.8</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6">
         <v>30002</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>20037</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="4">
+        <v>37</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="3" t="str">
+        <f>sheet!K40</f>
+        <v>,5,,3,,3,3</v>
+      </c>
+      <c r="H40" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G40" s="4">
-        <v>3</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>20038</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>163</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="4">
+        <v>38</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="3" t="str">
+        <f>sheet!K41</f>
+        <v>,8,,,,,</v>
+      </c>
+      <c r="H41" s="4">
         <v>1.2</v>
       </c>
-      <c r="G41" s="4">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4">
-        <v>3</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>3</v>
+      </c>
+      <c r="K41" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>20039</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>164</v>
+        <v>90</v>
+      </c>
+      <c r="D42" s="4">
+        <v>39</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3" t="str">
+        <f>sheet!K42</f>
+        <v>,8,3,,,5,</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4">
         <v>4</v>
       </c>
-      <c r="H42" s="4">
+      <c r="J42" s="4">
         <v>4</v>
       </c>
-      <c r="I42" s="6">
+      <c r="K42" s="6">
         <v>30005</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>20040</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
+      </c>
+      <c r="D43" s="4">
+        <v>40</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="3" t="str">
+        <f>sheet!K43</f>
+        <v>,8,3,5,,5,</v>
+      </c>
+      <c r="H43" s="4">
         <v>1.3</v>
       </c>
-      <c r="G43" s="4">
+      <c r="I43" s="4">
         <v>5</v>
       </c>
-      <c r="H43" s="4">
+      <c r="J43" s="4">
         <v>5</v>
       </c>
-      <c r="I43" s="6">
+      <c r="K43" s="6">
         <v>30006</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>20041</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="4">
+        <v>41</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="3" t="str">
+        <f>sheet!K44</f>
+        <v>,12,,,,,</v>
+      </c>
+      <c r="H44" s="4">
         <v>1.4</v>
       </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6">
         <v>30007</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>20042</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>167</v>
+        <v>93</v>
+      </c>
+      <c r="D45" s="4">
+        <v>42</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="3" t="str">
+        <f>sheet!K45</f>
+        <v>,15,4,8,,8,</v>
+      </c>
+      <c r="H45" s="4">
         <v>1.8</v>
       </c>
-      <c r="G45" s="4">
-        <v>3</v>
-      </c>
-      <c r="H45" s="4">
-        <v>2</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="I45" s="4">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45" s="6">
         <v>30008</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>20043</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>168</v>
+        <v>94</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="3" t="str">
+        <f>sheet!K46</f>
+        <v>,,,1,,,</v>
+      </c>
+      <c r="H46" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G46" s="4">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4">
-        <v>3</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6">
         <v>30009</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>20044</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>169</v>
+        <v>95</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="3" t="str">
+        <f>sheet!K47</f>
+        <v>,,,1,,,</v>
+      </c>
+      <c r="H47" s="4">
         <v>1.2</v>
       </c>
-      <c r="G47" s="4">
+      <c r="I47" s="4">
         <v>4</v>
       </c>
-      <c r="H47" s="4">
+      <c r="J47" s="4">
         <v>4</v>
       </c>
-      <c r="I47" s="6">
+      <c r="K47" s="6">
         <v>30010</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>20045</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>96</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3" t="str">
+        <f>sheet!K48</f>
+        <v>,,,2,,,</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
         <v>5</v>
       </c>
-      <c r="H48" s="4">
+      <c r="J48" s="4">
         <v>5</v>
       </c>
-      <c r="I48" s="6">
+      <c r="K48" s="6">
         <v>30011</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>20046</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>97</v>
+      </c>
+      <c r="D49" s="4">
+        <v>46</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="3" t="str">
+        <f>sheet!K49</f>
+        <v>,,,3,,1,</v>
+      </c>
+      <c r="H49" s="4">
         <v>1.3</v>
       </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6">
         <v>30012</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>20047</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>172</v>
+        <v>98</v>
+      </c>
+      <c r="D50" s="4">
+        <v>47</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="3" t="str">
+        <f>sheet!K50</f>
+        <v>,,,5,,,</v>
+      </c>
+      <c r="H50" s="4">
         <v>1.4</v>
       </c>
-      <c r="G50" s="4">
-        <v>3</v>
-      </c>
-      <c r="H50" s="4">
-        <v>2</v>
-      </c>
-      <c r="I50" s="6">
+      <c r="I50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="6">
         <v>30013</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>20048</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>173</v>
+        <v>99</v>
+      </c>
+      <c r="D51" s="4">
+        <v>48</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="3" t="str">
+        <f>sheet!K51</f>
+        <v>,,,8,,2,</v>
+      </c>
+      <c r="H51" s="4">
         <v>1.8</v>
       </c>
-      <c r="G51" s="4">
-        <v>2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>3</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+      <c r="K51" s="6">
         <v>30014</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>20049</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>174</v>
+        <v>100</v>
+      </c>
+      <c r="D52" s="4">
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="3" t="str">
+        <f>sheet!K52</f>
+        <v>,,1,10,,3,</v>
+      </c>
+      <c r="H52" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G52" s="4">
+      <c r="I52" s="4">
         <v>4</v>
       </c>
-      <c r="H52" s="4">
+      <c r="J52" s="4">
         <v>4</v>
       </c>
-      <c r="I52" s="6">
+      <c r="K52" s="6">
         <v>30015</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>20050</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>175</v>
+        <v>101</v>
+      </c>
+      <c r="D53" s="4">
+        <v>14</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="3" t="str">
+        <f>sheet!K53</f>
+        <v>,,,12,,5,</v>
+      </c>
+      <c r="H53" s="4">
         <v>1.2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="I53" s="4">
         <v>5</v>
       </c>
-      <c r="H53" s="4">
+      <c r="J53" s="4">
         <v>5</v>
       </c>
-      <c r="I53" s="6">
+      <c r="K53" s="6">
         <v>30016</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>20051</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>176</v>
+        <v>102</v>
+      </c>
+      <c r="D54" s="4">
+        <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1</v>
+      <c r="G54" s="3" t="str">
+        <f>sheet!K54</f>
+        <v>,,,15,,8,</v>
       </c>
       <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6">
         <v>30017</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>20052</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>177</v>
+        <v>103</v>
+      </c>
+      <c r="D55" s="4">
+        <v>16</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="3" t="str">
+        <f>sheet!K55</f>
+        <v>,,3,20,,5,</v>
+      </c>
+      <c r="H55" s="4">
         <v>1.3</v>
       </c>
-      <c r="G55" s="4">
-        <v>3</v>
-      </c>
-      <c r="H55" s="4">
-        <v>2</v>
-      </c>
-      <c r="I55" s="6">
+      <c r="I55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="K55" s="6">
         <v>30001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>20053</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>178</v>
+        <v>104</v>
+      </c>
+      <c r="D56" s="4">
+        <v>17</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="3" t="str">
+        <f>sheet!K56</f>
+        <v>,,,,1,,</v>
+      </c>
+      <c r="H56" s="4">
         <v>1.4</v>
       </c>
-      <c r="G56" s="4">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4">
-        <v>3</v>
-      </c>
-      <c r="I56" s="6">
+      <c r="I56" s="4">
+        <v>2</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
+      </c>
+      <c r="K56" s="6">
         <v>30002</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>20054</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>179</v>
+        <v>105</v>
+      </c>
+      <c r="D57" s="4">
+        <v>18</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="3" t="str">
+        <f>sheet!K57</f>
+        <v>,,,,1,,</v>
+      </c>
+      <c r="H57" s="4">
         <v>1.8</v>
       </c>
-      <c r="G57" s="4">
+      <c r="I57" s="4">
         <v>4</v>
       </c>
-      <c r="H57" s="4">
+      <c r="J57" s="4">
         <v>4</v>
       </c>
-      <c r="I57" s="6">
+      <c r="K57" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>20055</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>180</v>
+        <v>106</v>
+      </c>
+      <c r="D58" s="4">
+        <v>19</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="3" t="str">
+        <f>sheet!K58</f>
+        <v>,,,,3,,</v>
+      </c>
+      <c r="H58" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="I58" s="4">
         <v>5</v>
       </c>
-      <c r="H58" s="4">
+      <c r="J58" s="4">
         <v>5</v>
       </c>
-      <c r="I58" s="6">
+      <c r="K58" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>20056</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>181</v>
+        <v>107</v>
+      </c>
+      <c r="D59" s="4">
+        <v>20</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="3" t="str">
+        <f>sheet!K59</f>
+        <v>,,,,6,3,3</v>
+      </c>
+      <c r="H59" s="4">
         <v>1.2</v>
       </c>
-      <c r="G59" s="4">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6">
         <v>30005</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>20057</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>182</v>
+        <v>108</v>
+      </c>
+      <c r="D60" s="4">
+        <v>21</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4">
-        <v>3</v>
+      <c r="G60" s="3" t="str">
+        <f>sheet!K60</f>
+        <v>,,,,7,,</v>
       </c>
       <c r="H60" s="4">
         <v>2</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="4">
+        <v>3</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="6">
         <v>30006</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>20058</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>183</v>
+        <v>109</v>
+      </c>
+      <c r="D61" s="4">
+        <v>22</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="3" t="str">
+        <f>sheet!K61</f>
+        <v>,,,1,7,3,</v>
+      </c>
+      <c r="H61" s="4">
         <v>1.3</v>
       </c>
-      <c r="G61" s="4">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4">
-        <v>3</v>
-      </c>
-      <c r="I61" s="6">
+      <c r="I61" s="4">
+        <v>2</v>
+      </c>
+      <c r="J61" s="4">
+        <v>3</v>
+      </c>
+      <c r="K61" s="6">
         <v>30007</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>20059</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>184</v>
+        <v>110</v>
+      </c>
+      <c r="D62" s="4">
+        <v>23</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="3" t="str">
+        <f>sheet!K62</f>
+        <v>,,,,8,4,</v>
+      </c>
+      <c r="H62" s="4">
         <v>1.4</v>
       </c>
-      <c r="G62" s="4">
+      <c r="I62" s="4">
         <v>4</v>
       </c>
-      <c r="H62" s="4">
+      <c r="J62" s="4">
         <v>4</v>
       </c>
-      <c r="I62" s="6">
+      <c r="K62" s="6">
         <v>30008</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>20060</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>185</v>
+        <v>111</v>
+      </c>
+      <c r="D63" s="4">
+        <v>24</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="3" t="str">
+        <f>sheet!K63</f>
+        <v>,,,,9,,</v>
+      </c>
+      <c r="H63" s="4">
         <v>1.8</v>
       </c>
-      <c r="G63" s="4">
+      <c r="I63" s="4">
         <v>5</v>
       </c>
-      <c r="H63" s="4">
+      <c r="J63" s="4">
         <v>5</v>
       </c>
-      <c r="I63" s="6">
+      <c r="K63" s="6">
         <v>30009</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>20061</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>186</v>
+        <v>112</v>
+      </c>
+      <c r="D64" s="4">
+        <v>25</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="3" t="str">
+        <f>sheet!K64</f>
+        <v>,,,4,10,4,4</v>
+      </c>
+      <c r="H64" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4">
-        <v>1</v>
-      </c>
-      <c r="I64" s="6">
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6">
         <v>30010</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>20062</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>187</v>
+        <v>113</v>
+      </c>
+      <c r="D65" s="4">
+        <v>26</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="3" t="str">
+        <f>sheet!K65</f>
+        <v>,,,4,12,8,</v>
+      </c>
+      <c r="H65" s="4">
         <v>1.2</v>
       </c>
-      <c r="G65" s="4">
-        <v>3</v>
-      </c>
-      <c r="H65" s="4">
-        <v>2</v>
-      </c>
-      <c r="I65" s="6">
+      <c r="I65" s="4">
+        <v>3</v>
+      </c>
+      <c r="J65" s="4">
+        <v>2</v>
+      </c>
+      <c r="K65" s="6">
         <v>30011</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>20063</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>188</v>
+        <v>114</v>
+      </c>
+      <c r="D66" s="4">
+        <v>27</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4">
-        <v>2</v>
+      <c r="G66" s="3" t="str">
+        <f>sheet!K66</f>
+        <v>,,,,15,10,10</v>
       </c>
       <c r="H66" s="4">
-        <v>3</v>
-      </c>
-      <c r="I66" s="6">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4">
+        <v>2</v>
+      </c>
+      <c r="J66" s="4">
+        <v>3</v>
+      </c>
+      <c r="K66" s="6">
         <v>30012</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>20064</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>189</v>
+        <v>115</v>
+      </c>
+      <c r="D67" s="4">
+        <v>28</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="3" t="str">
+        <f>sheet!K67</f>
+        <v>,,,6,18,6,6</v>
+      </c>
+      <c r="H67" s="4">
         <v>1.3</v>
       </c>
-      <c r="G67" s="4">
+      <c r="I67" s="4">
         <v>4</v>
       </c>
-      <c r="H67" s="4">
+      <c r="J67" s="4">
         <v>4</v>
       </c>
-      <c r="I67" s="6">
+      <c r="K67" s="6">
         <v>30013</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>20065</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>190</v>
+        <v>116</v>
+      </c>
+      <c r="D68" s="4">
+        <v>29</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="4">
+        <v>189</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f>sheet!K68</f>
+        <v>,,,,,4,</v>
+      </c>
+      <c r="H68" s="4">
         <v>1.4</v>
       </c>
-      <c r="G68" s="4">
+      <c r="I68" s="4">
         <v>5</v>
       </c>
-      <c r="H68" s="4">
+      <c r="J68" s="4">
         <v>5</v>
       </c>
-      <c r="I68" s="6">
+      <c r="K68" s="6">
         <v>30014</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>20066</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>191</v>
+        <v>117</v>
+      </c>
+      <c r="D69" s="4">
+        <v>30</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="4">
+        <v>190</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f>sheet!K69</f>
+        <v>1,1,1,1,,6,</v>
+      </c>
+      <c r="H69" s="4">
         <v>1.8</v>
       </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6">
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6">
         <v>30015</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>20067</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>192</v>
+        <v>118</v>
+      </c>
+      <c r="D70" s="4">
+        <v>31</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="4">
+        <v>191</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f>sheet!K70</f>
+        <v>,3,3,5,,12,</v>
+      </c>
+      <c r="H70" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G70" s="4">
-        <v>3</v>
-      </c>
-      <c r="H70" s="4">
-        <v>2</v>
-      </c>
-      <c r="I70" s="6">
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="6">
         <v>30016</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>20068</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>193</v>
+        <v>119</v>
+      </c>
+      <c r="D71" s="4">
+        <v>32</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="4">
+        <v>192</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f>sheet!K71</f>
+        <v>1,1,1,1,,1,3</v>
+      </c>
+      <c r="H71" s="4">
         <v>1.2</v>
       </c>
-      <c r="G71" s="4">
-        <v>2</v>
-      </c>
-      <c r="H71" s="4">
-        <v>3</v>
-      </c>
-      <c r="I71" s="6">
+      <c r="I71" s="4">
+        <v>2</v>
+      </c>
+      <c r="J71" s="4">
+        <v>3</v>
+      </c>
+      <c r="K71" s="6">
         <v>30017</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>20069</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>194</v>
+        <v>120</v>
+      </c>
+      <c r="D72" s="4">
+        <v>33</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2</v>
-      </c>
-      <c r="G72" s="4">
+        <v>193</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f>sheet!K72</f>
+        <v>,,3,3,,3,5</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
         <v>4</v>
       </c>
-      <c r="H72" s="4">
+      <c r="J72" s="4">
         <v>4</v>
       </c>
-      <c r="I72" s="6">
+      <c r="K72" s="6">
         <v>30001</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>20070</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>195</v>
+        <v>121</v>
+      </c>
+      <c r="D73" s="4">
+        <v>34</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="4">
+        <v>194</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f>sheet!K73</f>
+        <v>,,2,2,,2,6</v>
+      </c>
+      <c r="H73" s="4">
         <v>1.3</v>
       </c>
-      <c r="G73" s="4">
+      <c r="I73" s="4">
         <v>5</v>
       </c>
-      <c r="H73" s="4">
+      <c r="J73" s="4">
         <v>5</v>
       </c>
-      <c r="I73" s="6">
+      <c r="K73" s="6">
         <v>30002</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>20071</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>196</v>
+        <v>122</v>
+      </c>
+      <c r="D74" s="4">
+        <v>35</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="4">
+        <v>195</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f>sheet!K74</f>
+        <v>,,,,,,7</v>
+      </c>
+      <c r="H74" s="4">
         <v>1.4</v>
       </c>
-      <c r="G74" s="4">
-        <v>1</v>
-      </c>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6">
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="6">
         <v>30003</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>20072</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>197</v>
+        <v>123</v>
+      </c>
+      <c r="D75" s="4">
+        <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="4">
+        <v>196</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f>sheet!K75</f>
+        <v>4,4,4,4,,4,8</v>
+      </c>
+      <c r="H75" s="4">
         <v>1.8</v>
       </c>
-      <c r="G75" s="4">
-        <v>3</v>
-      </c>
-      <c r="H75" s="4">
-        <v>2</v>
-      </c>
-      <c r="I75" s="6">
+      <c r="I75" s="4">
+        <v>3</v>
+      </c>
+      <c r="J75" s="4">
+        <v>2</v>
+      </c>
+      <c r="K75" s="6">
         <v>30004</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>20073</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>198</v>
+        <v>124</v>
+      </c>
+      <c r="D76" s="4">
+        <v>37</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="4">
+        <v>197</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f>sheet!K76</f>
+        <v>,,,,4,12,20</v>
+      </c>
+      <c r="H76" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G76" s="4">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4">
-        <v>3</v>
-      </c>
-      <c r="I76" s="6">
+      <c r="I76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76" s="4">
+        <v>3</v>
+      </c>
+      <c r="K76" s="6">
         <v>30005</v>
       </c>
     </row>
@@ -4623,12 +5282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4638,47 +5297,47 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4686,10 +5345,10 @@
         <v>30001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4">
         <v>6</v>
@@ -4703,10 +5362,10 @@
         <v>30002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
@@ -4720,10 +5379,10 @@
         <v>30003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="4">
         <v>30</v>
@@ -4737,10 +5396,10 @@
         <v>30004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="4">
         <v>15</v>
@@ -4754,10 +5413,10 @@
         <v>30005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="4">
         <v>22</v>
@@ -4771,10 +5430,10 @@
         <v>30006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="4">
         <v>6</v>
@@ -4788,10 +5447,10 @@
         <v>30007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
@@ -4805,10 +5464,10 @@
         <v>30008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
@@ -4822,10 +5481,10 @@
         <v>30009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
@@ -4839,10 +5498,10 @@
         <v>30010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="4">
         <v>30</v>
@@ -4856,10 +5515,10 @@
         <v>30011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14" s="4">
         <v>15</v>
@@ -4873,10 +5532,10 @@
         <v>30012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="4">
         <v>22</v>
@@ -4890,10 +5549,10 @@
         <v>30013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="4">
         <v>6</v>
@@ -4907,10 +5566,10 @@
         <v>30014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
@@ -4924,10 +5583,10 @@
         <v>30015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="4">
         <v>22</v>
@@ -4941,10 +5600,10 @@
         <v>30016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -4958,10 +5617,10 @@
         <v>30017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="4">
         <v>15</v>

--- a/DataTable/bin/Debug/Excel/Skill.xlsx
+++ b/DataTable/bin/Debug/Excel/Skill.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256FA5D-9DEA-4B93-A835-6479F6EB2EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="2025" windowWidth="16740" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="9405" yWindow="2370" windowWidth="16740" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Skill" sheetId="2" r:id="rId3"/>
     <sheet name="Buff" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,10 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#SkillAcquire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,35 +804,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,2,2,2,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,3,3,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3,4,4,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,5,5,6,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,3,3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpiritsType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +869,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -888,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,6 +923,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +949,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,6 +1024,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1034,6 +1076,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,11 +1268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:C70"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s">
         <v>15</v>
@@ -1266,6 +1325,10 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1280,6 +1343,12 @@
       <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="L3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
@@ -1295,6 +1364,12 @@
         <f>D4&amp;$M$1&amp;E4&amp;$M$1&amp;F4&amp;$M$1&amp;G4&amp;$M$1&amp;H4&amp;$M$1&amp;I4&amp;$M$1&amp;J4</f>
         <v>,,1,,,,</v>
       </c>
+      <c r="L4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
@@ -1310,6 +1385,12 @@
         <f t="shared" ref="K5:K68" si="0">D5&amp;$M$1&amp;E5&amp;$M$1&amp;F5&amp;$M$1&amp;G5&amp;$M$1&amp;H5&amp;$M$1&amp;I5&amp;$M$1&amp;J5</f>
         <v>,,2,,,,</v>
       </c>
+      <c r="L5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
@@ -1334,6 +1415,12 @@
         <f t="shared" si="0"/>
         <v>1,,2,,,1,1</v>
       </c>
+      <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
@@ -1349,6 +1436,12 @@
         <f t="shared" si="0"/>
         <v>,,3,,,,</v>
       </c>
+      <c r="L7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
@@ -1367,6 +1460,12 @@
         <f t="shared" si="0"/>
         <v>,,3,,,2,</v>
       </c>
+      <c r="L8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
@@ -1382,6 +1481,12 @@
         <f t="shared" si="0"/>
         <v>,,5,,,,</v>
       </c>
+      <c r="L9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
@@ -1399,6 +1504,12 @@
       <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>,,5,3,,,</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -2684,11 +2795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2697,12 +2808,15 @@
     <col min="3" max="3" width="22.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -2710,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -2724,44 +2838,154 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>50001</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="4" t="str">
+        <f>INDEX(sheet!$M$3:$M$10,MATCH(D4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(E4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(F4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(G4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(H4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(I4,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(J4,sheet!$L$3:$L$10,0))</f>
+        <v>7,7,1,1,3,5,6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>50002</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="4" t="str">
+        <f>INDEX(sheet!$M$3:$M$10,MATCH(D5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(E5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(F5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(G5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(H5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(I5,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(J5,sheet!$L$3:$L$10,0))</f>
+        <v>7,7,2,2,0,5,6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>50003</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4" t="str">
+        <f>INDEX(sheet!$M$3:$M$10,MATCH(D6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(E6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(F6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(G6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(H6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(I6,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(J6,sheet!$L$3:$L$10,0))</f>
+        <v>7,7,0,0,2,5,6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>50004</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4" t="str">
+        <f>INDEX(sheet!$M$3:$M$10,MATCH(D7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(E7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(F7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(G7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(H7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(I7,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(J7,sheet!$L$3:$L$10,0))</f>
+        <v>7,7,3,3,2,5,6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>50005</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="4" t="str">
+        <f>INDEX(sheet!$M$3:$M$10,MATCH(D8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(E8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(F8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(G8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(H8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(I8,sheet!$L$3:$L$10,0))&amp;$J$1&amp;INDEX(sheet!$M$3:$M$10,MATCH(J8,sheet!$L$3:$L$10,0))</f>
+        <v>7,7,4,4,2,5,6</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>235</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2772,10 +2996,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F68" sqref="F68:F70"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -2843,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
@@ -2852,7 +3076,7 @@
         <v>219</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
@@ -5283,11 +5507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
